--- a/Blockchain_dev_ABA/Excel Assignement.xlsx
+++ b/Blockchain_dev_ABA/Excel Assignement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spierre\Desktop\Aurexia Git\aurexiaGit.github.io\Blockchain_dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spierre\Desktop\Aurexia Git\aurexiaGit.github.io\Blockchain_dev_ABA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A35C503E-2C3D-4707-8150-389C48036B22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951CC1F2-4172-4EDC-AC0C-FA067BC80BB7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{28B20313-8927-4B1F-BF34-278DD7F86D08}"/>
+    <workbookView xWindow="30885" yWindow="930" windowWidth="21600" windowHeight="11385" xr2:uid="{28B20313-8927-4B1F-BF34-278DD7F86D08}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -70,6 +70,39 @@
   </si>
   <si>
     <t>0xD9BD857030ee8019125F1F1e862582E423e47B8E</t>
+  </si>
+  <si>
+    <t>Sébastien Pierre</t>
+  </si>
+  <si>
+    <t>Amine Badry</t>
+  </si>
+  <si>
+    <t>Martin Garrix</t>
+  </si>
+  <si>
+    <t>David Guetta</t>
+  </si>
+  <si>
+    <t>Paul Kalkbrenner</t>
+  </si>
+  <si>
+    <t>0x4968cccE83Ad9300f27c7Ece3a15e469b51a5dFd</t>
+  </si>
+  <si>
+    <t>0xFAb573993Bb7772E9ee25cca1A2DB24a79A4beA8</t>
+  </si>
+  <si>
+    <t>0x48BC8f1c04940da24349a7c9cdeC2040A860C3fe</t>
+  </si>
+  <si>
+    <t>0x309081BCb2922A0b32b60E6A099d4dBDb85D77e5</t>
+  </si>
+  <si>
+    <t>0xC2e2Ce1368180F65eD6449562dB15dFED0635D7E</t>
+  </si>
+  <si>
+    <t>enhance prefer gospel staff reward youth forward curve before predict crouch bottom</t>
   </si>
 </sst>
 </file>
@@ -421,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47763E1B-4C63-4D83-98D7-3908DF2562C5}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,6 +523,76 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
